--- a/汽柴煤油2.0/eta/2.汽柴煤油_数据上传.xlsx
+++ b/汽柴煤油2.0/eta/2.汽柴煤油_数据上传.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28800" windowHeight="12960" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="列表页" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="详情页" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="日度数据表" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="列表页" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="详情页" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="日度数据表" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -1996,11 +1996,6 @@
       <c r="R25" s="13" t="n"/>
       <c r="T25" s="14" t="n"/>
     </row>
-    <row r="26"/>
-    <row r="27"/>
-    <row r="28"/>
-    <row r="29"/>
-    <row r="30"/>
     <row r="31">
       <c r="B31" s="12" t="n"/>
       <c r="C31" s="12" t="n"/>

--- a/汽柴煤油2.0/eta/2.汽柴煤油_数据上传.xlsx
+++ b/汽柴煤油2.0/eta/2.汽柴煤油_数据上传.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28800" windowHeight="12960" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="列表页" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="详情页" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="日度数据表" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="列表页" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="详情页" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="日度数据表" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -1996,6 +1996,11 @@
       <c r="R25" s="13" t="n"/>
       <c r="T25" s="14" t="n"/>
     </row>
+    <row r="26"/>
+    <row r="27"/>
+    <row r="28"/>
+    <row r="29"/>
+    <row r="30"/>
     <row r="31">
       <c r="B31" s="12" t="n"/>
       <c r="C31" s="12" t="n"/>
